--- a/src/main/resources/testData/excel/data.xlsx
+++ b/src/main/resources/testData/excel/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{962CFE4C-37D7-4B4D-8438-88755BA7B869}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5D149B1E-BF05-41F6-9EFD-38BFA81CCF0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="4815" activeTab="2" xr2:uid="{1160D983-10FA-4211-9C7A-2E227E605DC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="3360" xr2:uid="{1160D983-10FA-4211-9C7A-2E227E605DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="RegistrationData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:L9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>userName</t>
   </si>
@@ -40,15 +40,6 @@
     <t>ajit_das@outlook.com</t>
   </si>
   <si>
-    <t>Rime2863</t>
-  </si>
-  <si>
-    <t>rimedas2015@gmail.com</t>
-  </si>
-  <si>
-    <t>loveYou123</t>
-  </si>
-  <si>
     <t>runMode</t>
   </si>
   <si>
@@ -179,6 +170,9 @@
   </si>
   <si>
     <t>`10462</t>
+  </si>
+  <si>
+    <t>SunShine289</t>
   </si>
 </sst>
 </file>
@@ -570,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF1FEC-11A6-4A49-A044-5DC3A7506EED}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,21 +601,21 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -650,54 +644,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A4C553-69B6-45A1-AB1B-CE0C98A81707}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -730,154 +724,154 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
       <c r="L1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25"/>
